--- a/data/trans_dic/P1409-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P1409-Edad-trans_dic.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.01707224523439979</v>
+        <v>0.01654268426954566</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.02408802050211064</v>
+        <v>0.02238039577086395</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.02523545289527615</v>
+        <v>0.02660193339615891</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.0161390853793981</v>
+        <v>0.0177525980905791</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.03606390573894737</v>
+        <v>0.03431452546920803</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.008661989650251563</v>
+        <v>0.008793473858315378</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.01971261062545046</v>
+        <v>0.02023774914296906</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.03345270601790368</v>
+        <v>0.03328689761545876</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.02270606437336758</v>
+        <v>0.0212356098893782</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.04686350289565519</v>
+        <v>0.04636239669280728</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.06210928856779943</v>
+        <v>0.06159982056714844</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1111983023466328</v>
+        <v>0.1137820965641452</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.04865599500735834</v>
+        <v>0.04760738264193037</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.07919431443136374</v>
+        <v>0.07758934877319808</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.05334457193193976</v>
+        <v>0.05480911401253138</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.04230214056886898</v>
+        <v>0.04221401103765289</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.06292881812543301</v>
+        <v>0.0618179126000139</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.07399132017499982</v>
+        <v>0.07135448692984539</v>
       </c>
     </row>
     <row r="7">
@@ -755,7 +755,7 @@
         <v>0.02712187296084487</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.06128218089245076</v>
+        <v>0.06128218089245075</v>
       </c>
       <c r="F7" s="5" t="n">
         <v>0.03613010838717357</v>
@@ -773,7 +773,7 @@
         <v>0.0323399009860344</v>
       </c>
       <c r="K7" s="5" t="n">
-        <v>0.05110332176217707</v>
+        <v>0.05110332176217708</v>
       </c>
     </row>
     <row r="8">
@@ -784,31 +784,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.01127837052025284</v>
+        <v>0.01159582611421897</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.01633463617973266</v>
+        <v>0.01573247496937219</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.03912525790350449</v>
+        <v>0.03816872312096362</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.02324019276849642</v>
+        <v>0.02335249305160148</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.02432457557324155</v>
+        <v>0.02327665198174729</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.02580852085817728</v>
+        <v>0.0268064417128526</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.01982048895286655</v>
+        <v>0.01979682161791861</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.02384038948817562</v>
+        <v>0.02239542087485887</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.03736061011632031</v>
+        <v>0.0365850344541855</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.03283412978347112</v>
+        <v>0.03199771862227952</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.0423041322767965</v>
+        <v>0.04560057283714657</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.09323739758504254</v>
+        <v>0.09565684378233855</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.0551350434178404</v>
+        <v>0.05679359950328865</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.0571440334430743</v>
+        <v>0.05400943295321356</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.05994062771225713</v>
+        <v>0.06107377226595271</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.03841163532649604</v>
+        <v>0.03796616925188494</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.04510060642430029</v>
+        <v>0.04303827438581186</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.069403734403332</v>
+        <v>0.0660634740078704</v>
       </c>
     </row>
     <row r="10">
@@ -873,7 +873,7 @@
         <v>0.03457943559428007</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>0.04539638008205444</v>
+        <v>0.04539638008205445</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>0.01864376990436708</v>
@@ -882,7 +882,7 @@
         <v>0.02655779393609697</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>0.04213443408856406</v>
+        <v>0.04213443408856407</v>
       </c>
     </row>
     <row r="11">
@@ -893,31 +893,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.006504385795516564</v>
+        <v>0.005863920883795782</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.009886852750385521</v>
+        <v>0.009354511246802531</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.0254726081186727</v>
+        <v>0.02504666841834531</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.01429108431486422</v>
+        <v>0.01339184319838931</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.02172177647420238</v>
+        <v>0.02298056016035626</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.03183555768378005</v>
+        <v>0.03293569704257181</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.01242398859360578</v>
+        <v>0.01174243361137727</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.01888338685598867</v>
+        <v>0.0179773009300333</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.03233610267553383</v>
+        <v>0.03233452159577637</v>
       </c>
     </row>
     <row r="12">
@@ -928,31 +928,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.02605552003711423</v>
+        <v>0.02613579039181197</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.03321422477814018</v>
+        <v>0.03195044952157033</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.05830046889099635</v>
+        <v>0.05808764080512015</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.03912918210174309</v>
+        <v>0.03854745326974975</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.05002675100482165</v>
+        <v>0.05413001004048815</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.06100348453240864</v>
+        <v>0.06220038251542888</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.02762370730468857</v>
+        <v>0.02704710585912536</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.03721716156063765</v>
+        <v>0.03662142485374877</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.05313511317979776</v>
+        <v>0.05362976285465437</v>
       </c>
     </row>
     <row r="13">
@@ -973,7 +973,7 @@
         <v>0.0126743042254946</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.03035721857141699</v>
+        <v>0.03035721857141698</v>
       </c>
       <c r="F13" s="5" t="n">
         <v>0.01713961554864683</v>
@@ -1002,31 +1002,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.003501919220807214</v>
+        <v>0.003519766021363436</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.00494987808333274</v>
+        <v>0.006157256511710328</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.01960433706684838</v>
+        <v>0.01981158016771341</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.00746333151008576</v>
+        <v>0.007575041767836126</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.02097438374628714</v>
+        <v>0.02182310096602519</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.04471930264177502</v>
+        <v>0.0444052328130425</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.007722822487736107</v>
+        <v>0.007750802291521823</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.01561358927755657</v>
+        <v>0.01531897371829976</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.03471242744458299</v>
+        <v>0.0352988461690399</v>
       </c>
     </row>
     <row r="15">
@@ -1037,31 +1037,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.02533612819286816</v>
+        <v>0.02506930050495374</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.02553716116408748</v>
+        <v>0.02676339710739584</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.04707093196349291</v>
+        <v>0.04533933777809697</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.03263892545538481</v>
+        <v>0.03256262895233263</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.04948548471309536</v>
+        <v>0.05133357514299168</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.07148821456177885</v>
+        <v>0.07140204485568186</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.02478469975045357</v>
+        <v>0.0228288190640963</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.03337563258225228</v>
+        <v>0.03292719347996729</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.05373158279008805</v>
+        <v>0.05500639567561547</v>
       </c>
     </row>
     <row r="16">
@@ -1082,7 +1082,7 @@
         <v>0.02566673903762169</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.02671104819991078</v>
+        <v>0.02671104819991077</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>0.02956867858537622</v>
@@ -1111,31 +1111,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.004681702382112836</v>
+        <v>0.004711056100644696</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.01298930352571023</v>
+        <v>0.01412282463160003</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.01596299144875664</v>
+        <v>0.01569125366167917</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.01588492861094218</v>
+        <v>0.01586139219402063</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.02404054800505541</v>
+        <v>0.02443294508754556</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.03468617865633001</v>
+        <v>0.03309708381401182</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.01304409296910212</v>
+        <v>0.01278999566059622</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.02169878230079499</v>
+        <v>0.02076667064987254</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.0279007294378528</v>
+        <v>0.02836216011940805</v>
       </c>
     </row>
     <row r="18">
@@ -1146,31 +1146,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.0267457984643776</v>
+        <v>0.02666545762232512</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.04673953626008525</v>
+        <v>0.04713516257673282</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.03914663519730469</v>
+        <v>0.04086354965407107</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.05278255822680789</v>
+        <v>0.05156193911814061</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.05983468845695716</v>
+        <v>0.06249167244424817</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.06068328962680251</v>
+        <v>0.06110969561734166</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.03399544382699131</v>
+        <v>0.03503464321493235</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.046460588009169</v>
+        <v>0.0473107275777711</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.04568843448179354</v>
+        <v>0.04681576004915577</v>
       </c>
     </row>
     <row r="19">
@@ -1191,7 +1191,7 @@
         <v>0.01720007638075255</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>0.02866298800552208</v>
+        <v>0.02866298800552207</v>
       </c>
       <c r="F19" s="5" t="n">
         <v>0.02505381289485593</v>
@@ -1209,7 +1209,7 @@
         <v>0.02897915304642665</v>
       </c>
       <c r="K19" s="5" t="n">
-        <v>0.03880087415186847</v>
+        <v>0.03880087415186848</v>
       </c>
     </row>
     <row r="20">
@@ -1220,31 +1220,31 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.01403431599736895</v>
+        <v>0.01610856366141107</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.005858503507742738</v>
+        <v>0.00599892869679724</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.01737139720965348</v>
+        <v>0.01791787482081523</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.01132736932421393</v>
+        <v>0.01111935987317218</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.02160379780712732</v>
+        <v>0.02391474482018063</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.03473345626049874</v>
+        <v>0.03600430998720121</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.01694130689072423</v>
+        <v>0.01748425934365927</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.01834251965882526</v>
+        <v>0.0178982510115498</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.02991192376861062</v>
+        <v>0.03046621578891143</v>
       </c>
     </row>
     <row r="21">
@@ -1255,31 +1255,31 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.0619365130127655</v>
+        <v>0.06333187562843952</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.03509462442566508</v>
+        <v>0.03583494132918496</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.04556037472633347</v>
+        <v>0.04770437720094267</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.0443452269282296</v>
+        <v>0.04615526315757115</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.06291158779956754</v>
+        <v>0.06366836255662282</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.06525725233455065</v>
+        <v>0.0654694418396988</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.04534937082520216</v>
+        <v>0.04511000380629211</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.04486423349382953</v>
+        <v>0.04392430145559807</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.05125800510735624</v>
+        <v>0.05114968487967523</v>
       </c>
     </row>
     <row r="22">
@@ -1309,7 +1309,7 @@
         <v>0.04878935859099524</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>0.06295800693324445</v>
+        <v>0.06295800693324444</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>0.03030777756739508</v>
@@ -1318,7 +1318,7 @@
         <v>0.05262748763952089</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>0.05008764727707164</v>
+        <v>0.05008764727707163</v>
       </c>
     </row>
     <row r="23">
@@ -1329,31 +1329,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.01272191342303262</v>
+        <v>0.01275829493212036</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.03525616957211095</v>
+        <v>0.03632860069074365</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.01819677761067073</v>
+        <v>0.0170222053614288</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.01652314112109948</v>
+        <v>0.01420255840906586</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.02840893435291924</v>
+        <v>0.0285271159940522</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.04642951529501167</v>
+        <v>0.04819323219348259</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.01849092435932489</v>
+        <v>0.01869874599279497</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.03636561938010702</v>
+        <v>0.0361205823567471</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.03963099505635238</v>
+        <v>0.03896569561288907</v>
       </c>
     </row>
     <row r="24">
@@ -1364,31 +1364,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.05969239461619383</v>
+        <v>0.06370311994880447</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.09048767489570281</v>
+        <v>0.09222506023109105</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.05053113152594502</v>
+        <v>0.05175366327574833</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.05374503972254534</v>
+        <v>0.05152845838778086</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.07915533059015847</v>
+        <v>0.07874388473046123</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.08213846631414685</v>
+        <v>0.08298018058153805</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.04694800375402967</v>
+        <v>0.04564345021160487</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.07466392039789874</v>
+        <v>0.07188991888656776</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.06396662075250527</v>
+        <v>0.06274463988199579</v>
       </c>
     </row>
     <row r="25">
@@ -1418,7 +1418,7 @@
         <v>0.0398240914492156</v>
       </c>
       <c r="H25" s="5" t="n">
-        <v>0.04764710036468307</v>
+        <v>0.04764710036468306</v>
       </c>
       <c r="I25" s="5" t="n">
         <v>0.02314977733220051</v>
@@ -1427,7 +1427,7 @@
         <v>0.03276356610283877</v>
       </c>
       <c r="K25" s="5" t="n">
-        <v>0.04320472712868246</v>
+        <v>0.04320472712868245</v>
       </c>
     </row>
     <row r="26">
@@ -1438,31 +1438,31 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.01491709552948997</v>
+        <v>0.01454015969614824</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.02041850189370339</v>
+        <v>0.02052567734377058</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.03132366422865277</v>
+        <v>0.03139640622144587</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.02153525465828988</v>
+        <v>0.02183268031102076</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.03360114364093895</v>
+        <v>0.03327379597781951</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.04233177123261193</v>
+        <v>0.04222792475395597</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.01982624020628889</v>
+        <v>0.019701698198475</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.02873603704342532</v>
+        <v>0.02833518751906267</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.03884336123399579</v>
+        <v>0.03876746204680678</v>
       </c>
     </row>
     <row r="27">
@@ -1473,31 +1473,31 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.02409318267194955</v>
+        <v>0.02404766709812177</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.03196767718547255</v>
+        <v>0.03171602182381973</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.04734336112947959</v>
+        <v>0.04752107556135166</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.03295389072489161</v>
+        <v>0.03315164854182196</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.04719236571803469</v>
+        <v>0.04673919134036895</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.05442422434849485</v>
+        <v>0.05438116627672087</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.02705552090568639</v>
+        <v>0.02707911755402076</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.03752083387129256</v>
+        <v>0.03761029370955254</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.04852896017608707</v>
+        <v>0.04808480943010211</v>
       </c>
     </row>
     <row r="28">
@@ -1729,31 +1729,31 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>7753</v>
+        <v>7513</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>10104</v>
+        <v>9388</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>10291</v>
+        <v>10848</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>6944</v>
+        <v>7638</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>14272</v>
+        <v>13580</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>3140</v>
+        <v>3188</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>17433</v>
+        <v>17898</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>27271</v>
+        <v>27136</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>17491</v>
+        <v>16358</v>
       </c>
     </row>
     <row r="7">
@@ -1764,31 +1764,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>21283</v>
+        <v>21055</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>26053</v>
+        <v>25839</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>45346</v>
+        <v>46400</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>20933</v>
+        <v>20482</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>31342</v>
+        <v>30706</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>19338</v>
+        <v>19869</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>37411</v>
+        <v>37333</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>51301</v>
+        <v>50395</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>56996</v>
+        <v>54965</v>
       </c>
     </row>
     <row r="8">
@@ -1873,31 +1873,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>7749</v>
+        <v>7967</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>9646</v>
+        <v>9290</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>18658</v>
+        <v>18202</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>14182</v>
+        <v>14251</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>13708</v>
+        <v>13117</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>12932</v>
+        <v>13432</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>25714</v>
+        <v>25683</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>27513</v>
+        <v>25845</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>36538</v>
+        <v>35779</v>
       </c>
     </row>
     <row r="11">
@@ -1908,31 +1908,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>22560</v>
+        <v>21985</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>24980</v>
+        <v>26927</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>44464</v>
+        <v>45618</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>33646</v>
+        <v>34659</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>32203</v>
+        <v>30437</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>30035</v>
+        <v>30603</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>49833</v>
+        <v>49255</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>52048</v>
+        <v>49668</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>67875</v>
+        <v>64608</v>
       </c>
     </row>
     <row r="12">
@@ -2017,31 +2017,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>4435</v>
+        <v>3998</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>6615</v>
+        <v>6259</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>15779</v>
+        <v>15515</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>10141</v>
+        <v>9503</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>14366</v>
+        <v>15199</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>19785</v>
+        <v>20469</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>17287</v>
+        <v>16339</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>25124</v>
+        <v>23918</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>40127</v>
+        <v>40125</v>
       </c>
     </row>
     <row r="15">
@@ -2052,31 +2052,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>17766</v>
+        <v>17821</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>22224</v>
+        <v>21378</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>36114</v>
+        <v>35982</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>27765</v>
+        <v>27352</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>33087</v>
+        <v>35801</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>37913</v>
+        <v>38657</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>38437</v>
+        <v>37634</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>49517</v>
+        <v>48724</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>65937</v>
+        <v>66551</v>
       </c>
     </row>
     <row r="16">
@@ -2161,31 +2161,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>2152</v>
+        <v>2163</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>3198</v>
+        <v>3978</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>13735</v>
+        <v>13880</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>4584</v>
+        <v>4653</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>13614</v>
+        <v>14165</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>32915</v>
+        <v>32684</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>9490</v>
+        <v>9525</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>20222</v>
+        <v>19840</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>49870</v>
+        <v>50712</v>
       </c>
     </row>
     <row r="19">
@@ -2196,31 +2196,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>15572</v>
+        <v>15408</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>16498</v>
+        <v>17290</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>32979</v>
+        <v>31766</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>20049</v>
+        <v>20002</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>32120</v>
+        <v>33319</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>52618</v>
+        <v>52555</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>30457</v>
+        <v>28054</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>43226</v>
+        <v>42645</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>77194</v>
+        <v>79025</v>
       </c>
     </row>
     <row r="20">
@@ -2305,31 +2305,31 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>2010</v>
+        <v>2023</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>6208</v>
+        <v>6750</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>9695</v>
+        <v>9530</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>7113</v>
+        <v>7103</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>11945</v>
+        <v>12139</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>21022</v>
+        <v>20059</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>11443</v>
+        <v>11220</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>21151</v>
+        <v>20243</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>33856</v>
+        <v>34416</v>
       </c>
     </row>
     <row r="23">
@@ -2340,31 +2340,31 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>11485</v>
+        <v>11451</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>22338</v>
+        <v>22527</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>23776</v>
+        <v>24819</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>23636</v>
+        <v>23089</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>29729</v>
+        <v>31049</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>36779</v>
+        <v>37037</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>29822</v>
+        <v>30733</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>45288</v>
+        <v>46117</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>55440</v>
+        <v>56808</v>
       </c>
     </row>
     <row r="24">
@@ -2449,31 +2449,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>4348</v>
+        <v>4990</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>1959</v>
+        <v>2006</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>7056</v>
+        <v>7278</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>4010</v>
+        <v>3936</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>8161</v>
+        <v>9034</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>15214</v>
+        <v>15771</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>11245</v>
+        <v>11606</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>13062</v>
+        <v>12745</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>25253</v>
+        <v>25721</v>
       </c>
     </row>
     <row r="27">
@@ -2484,31 +2484,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>19187</v>
+        <v>19619</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>11733</v>
+        <v>11981</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>18507</v>
+        <v>19378</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>15698</v>
+        <v>16339</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>23766</v>
+        <v>24051</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>28584</v>
+        <v>28677</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>30102</v>
+        <v>29943</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>31947</v>
+        <v>31278</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>43274</v>
+        <v>43182</v>
       </c>
     </row>
     <row r="28">
@@ -2593,31 +2593,31 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>3179</v>
+        <v>3188</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>9061</v>
+        <v>9336</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>5645</v>
+        <v>5280</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>6408</v>
+        <v>5508</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>11368</v>
+        <v>11416</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>21553</v>
+        <v>22372</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>11791</v>
+        <v>11923</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>23898</v>
+        <v>23737</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>30691</v>
+        <v>30175</v>
       </c>
     </row>
     <row r="31">
@@ -2628,31 +2628,31 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>14914</v>
+        <v>15916</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>23255</v>
+        <v>23702</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>15675</v>
+        <v>16054</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>20842</v>
+        <v>19983</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>31676</v>
+        <v>31511</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>38129</v>
+        <v>38520</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>29936</v>
+        <v>29104</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>49067</v>
+        <v>47244</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>49536</v>
+        <v>48590</v>
       </c>
     </row>
     <row r="32">
@@ -2737,31 +2737,31 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>51118</v>
+        <v>49826</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>69308</v>
+        <v>69671</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>110526</v>
+        <v>110783</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>76534</v>
+        <v>77592</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>119101</v>
+        <v>117940</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>157873</v>
+        <v>157486</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>138401</v>
+        <v>137532</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>199396</v>
+        <v>196615</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>281923</v>
+        <v>281372</v>
       </c>
     </row>
     <row r="35">
@@ -2772,31 +2772,31 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>82562</v>
+        <v>82406</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>108509</v>
+        <v>107655</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>167052</v>
+        <v>167679</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>117115</v>
+        <v>117818</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>167275</v>
+        <v>165669</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>202971</v>
+        <v>202811</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>188866</v>
+        <v>189031</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>260353</v>
+        <v>260974</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>352221</v>
+        <v>348997</v>
       </c>
     </row>
     <row r="36">
